--- a/4213/ScumSprint/Stories.xlsx
+++ b/4213/ScumSprint/Stories.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theof\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Project2017\4213\ScumSprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Story1</t>
   </si>
@@ -75,6 +76,24 @@
   </si>
   <si>
     <t>Γιώργος</t>
+  </si>
+  <si>
+    <t>CreateDataBase</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>TransferLog</t>
+  </si>
+  <si>
+    <t>UserForm</t>
+  </si>
+  <si>
+    <t>ShopKeeperForm</t>
   </si>
 </sst>
 </file>
@@ -139,249 +158,249 @@
         <left style="thick">
           <color auto="1"/>
         </left>
+        <right/>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thick">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thick">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thick">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thick">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thick">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thick">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thick">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thick">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thick">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thick">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thick">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thick">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thick">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thick">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thick">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thick">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thick">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thick">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thick">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thick">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thick">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thick">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
         <right style="thick">
           <color auto="1"/>
         </right>
         <top/>
         <bottom/>
-        <vertical style="thick">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thick">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thick">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thick">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right style="thick">
-          <color auto="1"/>
-        </right>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thick">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thick">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right style="thick">
-          <color auto="1"/>
-        </right>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thick">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thick">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right style="thick">
-          <color auto="1"/>
-        </right>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thick">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thick">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right style="thick">
-          <color auto="1"/>
-        </right>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thick">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thick">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right style="thick">
-          <color auto="1"/>
-        </right>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thick">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thick">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right style="thick">
-          <color auto="1"/>
-        </right>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thick">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thick">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right style="thick">
-          <color auto="1"/>
-        </right>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thick">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thick">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right style="thick">
-          <color auto="1"/>
-        </right>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thick">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thick">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right style="thick">
-          <color auto="1"/>
-        </right>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thick">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thick">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thick">
-          <color auto="1"/>
-        </right>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
         <vertical style="thick">
           <color auto="1"/>
         </vertical>
@@ -404,20 +423,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B1:L7" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B1:L7" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="B1:L7"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Story1" dataDxfId="11"/>
-    <tableColumn id="2" name="Story2" dataDxfId="10"/>
-    <tableColumn id="3" name="Story3" dataDxfId="9"/>
-    <tableColumn id="4" name="Story4" dataDxfId="8"/>
-    <tableColumn id="5" name="Story5" dataDxfId="7"/>
-    <tableColumn id="6" name="Story6" dataDxfId="6"/>
-    <tableColumn id="7" name="Story7" dataDxfId="5"/>
-    <tableColumn id="8" name="Story8" dataDxfId="4"/>
-    <tableColumn id="9" name="Story9" dataDxfId="3"/>
-    <tableColumn id="10" name="Story10" dataDxfId="2"/>
-    <tableColumn id="11" name="Story11" dataDxfId="1"/>
+    <tableColumn id="1" name="Story1" dataDxfId="10"/>
+    <tableColumn id="2" name="Story2" dataDxfId="9"/>
+    <tableColumn id="3" name="Story3" dataDxfId="8"/>
+    <tableColumn id="4" name="Story4" dataDxfId="7"/>
+    <tableColumn id="5" name="Story5" dataDxfId="6"/>
+    <tableColumn id="6" name="Story6" dataDxfId="5"/>
+    <tableColumn id="7" name="Story7" dataDxfId="4"/>
+    <tableColumn id="8" name="Story8" dataDxfId="3"/>
+    <tableColumn id="9" name="Story9" dataDxfId="2"/>
+    <tableColumn id="10" name="Story10" dataDxfId="1"/>
+    <tableColumn id="11" name="Story11" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -688,7 +707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -840,4 +859,81 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/4213/ScumSprint/Stories.xlsx
+++ b/4213/ScumSprint/Stories.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Story1</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>ShopKeeperForm</t>
+  </si>
+  <si>
+    <t>Stories</t>
+  </si>
+  <si>
+    <t>Tasks</t>
   </si>
 </sst>
 </file>
@@ -110,12 +116,48 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -145,9 +187,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,6 +465,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -707,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +815,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1"/>
@@ -772,7 +831,7 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1"/>
@@ -788,7 +847,7 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1"/>
@@ -804,7 +863,7 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1"/>
@@ -820,7 +879,7 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1"/>
@@ -836,7 +895,7 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="1"/>
@@ -863,74 +922,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="12" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
